--- a/Data Files/Input Validation/04. taxpayerbranch/Case1/Auto_Branch_Case1_C5.xlsx
+++ b/Data Files/Input Validation/04. taxpayerbranch/Case1/Auto_Branch_Case1_C5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82FE9715-0678-4FA4-AAF5-0D2F4F9B3EFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75448C1-7018-4B9C-AC31-B9C3BF3FE332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1 -1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="91">
   <si>
     <t>taxPayerBrachNo</t>
   </si>
@@ -33,6 +33,9 @@
     <t>creationDate</t>
   </si>
   <si>
+    <t>contractNo</t>
+  </si>
+  <si>
     <t>contractPartyFirstName</t>
   </si>
   <si>
@@ -228,7 +231,7 @@
     <t>issueNumber</t>
   </si>
   <si>
-    <t>2023-09-01</t>
+    <t>O</t>
   </si>
   <si>
     <t>สมหมาย</t>
@@ -261,9 +264,6 @@
     <t>1721000011382</t>
   </si>
   <si>
-    <t>O</t>
-  </si>
-  <si>
     <t>888/77</t>
   </si>
   <si>
@@ -292,6 +292,12 @@
   </si>
   <si>
     <t>[2|2|1|d1|d2|d3|d4|d5|d6|10000|1000|51000|5]</t>
+  </si>
+  <si>
+    <t>6la4-aaaa-sd60</t>
+  </si>
+  <si>
+    <t>2023-10-01</t>
   </si>
 </sst>
 </file>
@@ -332,11 +338,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -655,13 +660,12 @@
   <dimension ref="A1:BP2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.21875" customWidth="1"/>
-    <col min="16384" max="16384" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:68" x14ac:dyDescent="0.25">
@@ -669,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -684,249 +688,249 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="3">
-        <v>45185</v>
-      </c>
-      <c r="D2" t="s">
-        <v>68</v>
+      <c r="B2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="E2" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>70</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="P2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="T2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="W2" s="1" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="X2" s="1" t="s">
         <v>79</v>
@@ -956,13 +960,13 @@
         <v>87</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BF2" s="1" t="s">
         <v>88</v>
       </c>
       <c r="BP2" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/Data Files/Input Validation/04. taxpayerbranch/Case1/Auto_Branch_Case1_C5.xlsx
+++ b/Data Files/Input Validation/04. taxpayerbranch/Case1/Auto_Branch_Case1_C5.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75448C1-7018-4B9C-AC31-B9C3BF3FE332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808EFF28-5CC7-4390-A2ED-DBC64313345C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1152" yWindow="1152" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -297,7 +297,7 @@
     <t>6la4-aaaa-sd60</t>
   </si>
   <si>
-    <t>2023-10-01</t>
+    <t>2023-10-16</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Input Validation/04. taxpayerbranch/Case1/Auto_Branch_Case1_C5.xlsx
+++ b/Data Files/Input Validation/04. taxpayerbranch/Case1/Auto_Branch_Case1_C5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\test gestamp\Data Files\Input Validation\04. taxpayerbranch\Case1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808EFF28-5CC7-4390-A2ED-DBC64313345C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E18BEBA-5C3E-466A-8D36-66773C1EE436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="1776" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1 -1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="91">
   <si>
     <t>taxPayerBrachNo</t>
   </si>
@@ -659,8 +659,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BP2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="BK1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BP8" sqref="BP8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -965,9 +965,7 @@
       <c r="BF2" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="BP2" s="1" t="s">
-        <v>72</v>
-      </c>
+      <c r="BP2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Data Files/Input Validation/04. taxpayerbranch/Case1/Auto_Branch_Case1_C5.xlsx
+++ b/Data Files/Input Validation/04. taxpayerbranch/Case1/Auto_Branch_Case1_C5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\test gestamp\Data Files\Input Validation\04. taxpayerbranch\Case1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E18BEBA-5C3E-466A-8D36-66773C1EE436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A64659-9CDA-4E0B-A165-7DDF67393A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="1776" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1464" yWindow="1464" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1 -1" sheetId="1" r:id="rId1"/>
@@ -297,7 +297,7 @@
     <t>6la4-aaaa-sd60</t>
   </si>
   <si>
-    <t>2023-10-16</t>
+    <t>2023-11-01</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Input Validation/04. taxpayerbranch/Case1/Auto_Branch_Case1_C5.xlsx
+++ b/Data Files/Input Validation/04. taxpayerbranch/Case1/Auto_Branch_Case1_C5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A64659-9CDA-4E0B-A165-7DDF67393A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E02E9E-BF1F-4224-9925-36E8988E0626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1464" yWindow="1464" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2835" yWindow="2010" windowWidth="11925" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1 -1" sheetId="1" r:id="rId1"/>
@@ -297,14 +297,14 @@
     <t>6la4-aaaa-sd60</t>
   </si>
   <si>
-    <t>2023-11-01</t>
+    <t>2023-11-16</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="10"/>
       <name val="Tahoma"/>
@@ -663,12 +663,12 @@
       <selection activeCell="BP8" sqref="BP8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="18.21875" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:68">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -874,7 +874,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:68">
       <c r="A2">
         <v>0</v>
       </c>

--- a/Data Files/Input Validation/04. taxpayerbranch/Case1/Auto_Branch_Case1_C5.xlsx
+++ b/Data Files/Input Validation/04. taxpayerbranch/Case1/Auto_Branch_Case1_C5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E02E9E-BF1F-4224-9925-36E8988E0626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D247818-9785-4D6D-B444-4CC757CC9DC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2835" yWindow="2010" windowWidth="11925" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6555" yWindow="2760" windowWidth="9690" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1 -1" sheetId="1" r:id="rId1"/>
@@ -297,7 +297,7 @@
     <t>6la4-aaaa-sd60</t>
   </si>
   <si>
-    <t>2023-11-16</t>
+    <t>2024-01-02</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Input Validation/04. taxpayerbranch/Case1/Auto_Branch_Case1_C5.xlsx
+++ b/Data Files/Input Validation/04. taxpayerbranch/Case1/Auto_Branch_Case1_C5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D247818-9785-4D6D-B444-4CC757CC9DC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E8EC9B3-9DFB-4CF9-91F5-BD691AF11E0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6555" yWindow="2760" windowWidth="9690" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1 -1" sheetId="1" r:id="rId1"/>
@@ -297,7 +297,7 @@
     <t>6la4-aaaa-sd60</t>
   </si>
   <si>
-    <t>2024-01-02</t>
+    <t>2024-01-16</t>
   </si>
 </sst>
 </file>
@@ -360,9 +360,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -400,7 +400,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -506,7 +506,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -648,7 +648,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/Data Files/Input Validation/04. taxpayerbranch/Case1/Auto_Branch_Case1_C5.xlsx
+++ b/Data Files/Input Validation/04. taxpayerbranch/Case1/Auto_Branch_Case1_C5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{135FA3D0-913E-4A9A-AAC5-EC14FCE4761A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F19EED46-DBD8-4D14-82FC-247FA214A35E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10545" yWindow="2985" windowWidth="12915" windowHeight="12615" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1 -1" sheetId="1" r:id="rId1"/>
@@ -297,7 +297,7 @@
     <t>6la4-aaaa-sd60</t>
   </si>
   <si>
-    <t>2024-02-16</t>
+    <t>2024-04-16</t>
   </si>
 </sst>
 </file>
@@ -360,9 +360,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -400,7 +400,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -506,7 +506,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -648,7 +648,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/Data Files/Input Validation/04. taxpayerbranch/Case1/Auto_Branch_Case1_C5.xlsx
+++ b/Data Files/Input Validation/04. taxpayerbranch/Case1/Auto_Branch_Case1_C5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F19EED46-DBD8-4D14-82FC-247FA214A35E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{635E0843-218D-42F5-ADD1-A6A1C34993E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10545" yWindow="2985" windowWidth="12915" windowHeight="12615" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="12915" windowHeight="12660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1 -1" sheetId="1" r:id="rId1"/>
@@ -297,14 +297,14 @@
     <t>6la4-aaaa-sd60</t>
   </si>
   <si>
-    <t>2024-04-16</t>
+    <t>2024-07-01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Tahoma"/>
@@ -663,12 +663,12 @@
       <selection activeCell="BP8" sqref="BP8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68">
+    <row r="1" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -874,7 +874,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:68">
+    <row r="2" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>

--- a/Data Files/Input Validation/04. taxpayerbranch/Case1/Auto_Branch_Case1_C5.xlsx
+++ b/Data Files/Input Validation/04. taxpayerbranch/Case1/Auto_Branch_Case1_C5.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{635E0843-218D-42F5-ADD1-A6A1C34993E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D52FE42E-65A1-484F-9E00-E8E6040FE9DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="12915" windowHeight="12660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="7305" windowHeight="13260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1 -1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" calcMode="manual"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -297,7 +297,7 @@
     <t>6la4-aaaa-sd60</t>
   </si>
   <si>
-    <t>2024-07-01</t>
+    <t>2024-08-16</t>
   </si>
 </sst>
 </file>
@@ -659,8 +659,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BP2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BK1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BP8" sqref="BP8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
